--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed4/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.459900000000003</v>
+        <v>8.453800000000005</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.8746</v>
+        <v>-21.99930000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>6.122799999999997</v>
+        <v>5.622900000000008</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.2536</v>
+        <v>-8.273999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.3796</v>
+        <v>5.730000000000002</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.07850000000002</v>
+        <v>-22.29420000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.28419999999999</v>
+        <v>-21.31659999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.328500000000004</v>
+        <v>8.336800000000013</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.480200000000005</v>
+        <v>4.939100000000004</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.966300000000001</v>
+        <v>4.950900000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.06349999999999</v>
+        <v>-21.9058</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.727799999999999</v>
+        <v>-8.150100000000002</v>
       </c>
     </row>
     <row r="28">
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.3727</v>
+        <v>-7.409800000000001</v>
       </c>
     </row>
     <row r="30">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.121699999999993</v>
+        <v>-6.986899999999991</v>
       </c>
     </row>
     <row r="33">
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.6286</v>
+        <v>9.625100000000002</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-22.0117</v>
+        <v>-22.0574</v>
       </c>
       <c r="B35" t="n">
-        <v>5.0301</v>
+        <v>4.973199999999998</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.1387</v>
+        <v>-7.207000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.6157</v>
+        <v>-7.777699999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.682799999999999</v>
+        <v>-7.798500000000002</v>
       </c>
     </row>
     <row r="42">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.086900000000001</v>
+        <v>-7.385599999999996</v>
       </c>
     </row>
     <row r="46">
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.798000000000003</v>
+        <v>5.746600000000006</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.509200000000001</v>
+        <v>5.268699999999999</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-9.076799999999995</v>
+        <v>-8.732899999999995</v>
       </c>
     </row>
     <row r="52">
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.3245</v>
+        <v>5.776999999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.088199999999995</v>
+        <v>-7.932999999999993</v>
       </c>
     </row>
     <row r="58">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.340199999999991</v>
+        <v>-7.23819999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.294799999999996</v>
+        <v>5.241799999999996</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.475199999999997</v>
+        <v>5.505999999999996</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61759999999999</v>
+        <v>-21.58569999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.57469999999999</v>
+        <v>-19.58679999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-21.7253</v>
+        <v>-21.7383</v>
       </c>
       <c r="B78" t="n">
-        <v>5.398300000000001</v>
+        <v>5.677599999999997</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.580199999999996</v>
+        <v>9.326799999999997</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.10850000000002</v>
+        <v>-22.04170000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1586,12 +1586,12 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.583800000000004</v>
+        <v>-9.0764</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.59119999999999</v>
+        <v>-21.56609999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.46020000000001</v>
+        <v>-21.46300000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.691099999999993</v>
+        <v>-6.890499999999992</v>
       </c>
     </row>
     <row r="94">
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.046200000000002</v>
+        <v>5.968699999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.572900000000001</v>
+        <v>-7.325999999999998</v>
       </c>
     </row>
     <row r="103">
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.884600000000004</v>
+        <v>9.732700000000001</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.719100000000001</v>
+        <v>-7.576499999999999</v>
       </c>
     </row>
   </sheetData>
